--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_20.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>326193.4596435617</v>
+        <v>322627.9577700116</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.8925167</v>
+        <v>2280223.653892733</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.0933791243</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11106398.84697921</v>
+        <v>11102858.97063669</v>
       </c>
     </row>
     <row r="11">
@@ -662,10 +662,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>356.2165815699985</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>16.99219884861273</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -756,7 +756,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>13.99401015844088</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>133.5813703291298</v>
@@ -801,10 +801,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>177.5210747552478</v>
+        <v>106.7832748237462</v>
       </c>
     </row>
     <row r="4">
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -874,10 +874,10 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>175.6983641828946</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>60.72455305259754</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>208.3317689456639</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>24.90308739820594</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,10 +978,10 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>78.69236129863727</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
         <v>123.1874880556995</v>
@@ -1023,10 +1023,10 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>26.9656645363043</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>63.45080330270152</v>
+        <v>8.298685342232602</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
@@ -1148,7 +1148,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>319.8928651882699</v>
+        <v>328.0226318974073</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>130.417892858628</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
@@ -1309,7 +1309,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>139.519394494172</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
@@ -1385,10 +1385,10 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372788</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.770107113628</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>144.8746443877197</v>
       </c>
       <c r="V11" t="n">
-        <v>253.1346542527491</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
         <v>321.4474895938729</v>
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177846</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465757</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442484</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681697</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338901</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456094</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
@@ -1582,19 +1582,19 @@
         <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>119.564238717927</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>67.92514713442024</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>341.64718169059</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372788</v>
+        <v>65.87543334372783</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.770107113628</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>100.6675882927504</v>
       </c>
       <c r="X14" t="n">
-        <v>303.6926595313303</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y14" t="n">
         <v>321.4474895938729</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993873</v>
+        <v>97.42475435993869</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177846</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681697</v>
+        <v>95.49320096681693</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338897</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.6851687145609</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901686</v>
+        <v>51.58366707901682</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
-        <v>106.0822522004041</v>
+        <v>177.9207436261363</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799146</v>
@@ -1853,16 +1853,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
         <v>251.2267481799146</v>
@@ -2090,16 +2090,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C28" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380448</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380447</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542118</v>
+        <v>283.7098784815727</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820276</v>
+        <v>276.4638267093884</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954278</v>
+        <v>268.8067977227887</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345498</v>
+        <v>285.7777698619107</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852509</v>
+        <v>299.9455743126117</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568057</v>
+        <v>296.2512081841666</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291031</v>
+        <v>208.062300156464</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838871</v>
+        <v>24.17382596574956</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828884</v>
+        <v>52.06849973564968</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161064</v>
+        <v>108.4856766434672</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696763</v>
+        <v>140.4152824970371</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034457</v>
+        <v>225.9058214308065</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813243</v>
+        <v>254.5091249086852</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162026</v>
+        <v>272.7781592435634</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885338</v>
+        <v>279.7458822158947</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431716</v>
+        <v>70.576018731678</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459957</v>
+        <v>55.72314698196041</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643929</v>
+        <v>41.29686219380014</v>
       </c>
       <c r="E34" t="n">
-        <v>47.6667667193184</v>
+        <v>41.22330424667925</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908567</v>
+        <v>42.97275566644652</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147781</v>
+        <v>53.79159358883865</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804985</v>
+        <v>41.14384575541069</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922178</v>
+        <v>18.98356133658262</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.3255221736777</v>
+        <v>9.882059701038543</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920501</v>
+        <v>88.00800320656586</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133771</v>
+        <v>120.5819415407379</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404469</v>
+        <v>169.8044840678078</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273129</v>
+        <v>150.5396319546738</v>
       </c>
       <c r="W34" t="n">
-        <v>174.160640748063</v>
+        <v>167.7171782754239</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947756</v>
+        <v>118.9595992221365</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.544483271452</v>
+        <v>108.1010207988128</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3326,10 +3326,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F38" t="n">
         <v>282.3655247697376</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U38" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W38" t="n">
         <v>236.929075365811</v>
@@ -3569,7 +3569,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V40" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F41" t="n">
         <v>282.3655247697376</v>
@@ -3755,10 +3755,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U41" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W41" t="n">
         <v>236.929075365811</v>
@@ -3806,7 +3806,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V43" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="44">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1774.288224026349</v>
+        <v>888.7242779591784</v>
       </c>
       <c r="C2" t="n">
-        <v>1774.288224026349</v>
+        <v>888.7242779591784</v>
       </c>
       <c r="D2" t="n">
-        <v>1414.473495167765</v>
+        <v>888.7242779591784</v>
       </c>
       <c r="E2" t="n">
-        <v>1011.889970284309</v>
+        <v>871.5604407383574</v>
       </c>
       <c r="F2" t="n">
-        <v>594.995531814287</v>
+        <v>454.6660022683352</v>
       </c>
       <c r="G2" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633835</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633835</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633835</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633835</v>
       </c>
       <c r="K2" t="n">
-        <v>402.4780154222167</v>
+        <v>400.4856027838002</v>
       </c>
       <c r="L2" t="n">
-        <v>895.7983071407456</v>
+        <v>607.9173797052149</v>
       </c>
       <c r="M2" t="n">
-        <v>895.7983071407456</v>
+        <v>1121.520058314902</v>
       </c>
       <c r="N2" t="n">
-        <v>1423.609590778208</v>
+        <v>1635.122736924589</v>
       </c>
       <c r="O2" t="n">
-        <v>1863.649191670536</v>
+        <v>2075.162337816917</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596798</v>
+        <v>2075.162337816917</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816917</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816917</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816917</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816917</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816917</v>
       </c>
       <c r="V2" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816917</v>
       </c>
       <c r="W2" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816917</v>
       </c>
       <c r="X2" t="n">
-        <v>2174.782969737746</v>
+        <v>1685.709732749974</v>
       </c>
       <c r="Y2" t="n">
-        <v>2174.782969737746</v>
+        <v>1289.219023670575</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>807.6097523431024</v>
+        <v>840.8692298963692</v>
       </c>
       <c r="C3" t="n">
-        <v>656.9555219031946</v>
+        <v>690.2149994564614</v>
       </c>
       <c r="D3" t="n">
-        <v>526.8665545246749</v>
+        <v>560.1260320779418</v>
       </c>
       <c r="E3" t="n">
-        <v>390.4200636355627</v>
+        <v>423.6795411888295</v>
       </c>
       <c r="F3" t="n">
-        <v>265.9882575186945</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G3" t="n">
-        <v>145.9284395905589</v>
+        <v>179.1879171438258</v>
       </c>
       <c r="H3" t="n">
-        <v>57.63102319115985</v>
+        <v>90.89050074442676</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633835</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633835</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767087</v>
+        <v>158.7695259828327</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>642.335611881146</v>
       </c>
       <c r="M3" t="n">
-        <v>959.915873575022</v>
+        <v>1155.938290490833</v>
       </c>
       <c r="N3" t="n">
-        <v>1498.174658585114</v>
+        <v>1155.938290490833</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466458</v>
+        <v>1669.54096910052</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182855</v>
+        <v>2075.162337816917</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816917</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.86592663581</v>
+        <v>2075.162337816917</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535679</v>
+        <v>1940.231660716786</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734588</v>
+        <v>1763.247848915695</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413229</v>
+        <v>1553.184705594336</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784297</v>
+        <v>1330.644703965404</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917583</v>
+        <v>1100.52745809869</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675951</v>
+        <v>1100.52745809869</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431024</v>
+        <v>992.6655643373306</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1273.335947196194</v>
+        <v>360.4544933316646</v>
       </c>
       <c r="C4" t="n">
-        <v>1273.335947196194</v>
+        <v>360.4544933316646</v>
       </c>
       <c r="D4" t="n">
-        <v>1273.335947196194</v>
+        <v>360.4544933316646</v>
       </c>
       <c r="E4" t="n">
-        <v>1273.335947196194</v>
+        <v>360.4544933316646</v>
       </c>
       <c r="F4" t="n">
-        <v>1273.335947196194</v>
+        <v>360.4544933316646</v>
       </c>
       <c r="G4" t="n">
-        <v>1273.335947196194</v>
+        <v>360.4544933316646</v>
       </c>
       <c r="H4" t="n">
-        <v>1273.335947196194</v>
+        <v>204.9759422931585</v>
       </c>
       <c r="I4" t="n">
-        <v>1273.335947196194</v>
+        <v>71.8815169302364</v>
       </c>
       <c r="J4" t="n">
-        <v>1273.335947196194</v>
+        <v>41.50324675633835</v>
       </c>
       <c r="K4" t="n">
-        <v>1355.170988306135</v>
+        <v>123.3382878662802</v>
       </c>
       <c r="L4" t="n">
-        <v>1519.298628179935</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M4" t="n">
-        <v>1705.590206518199</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N4" t="n">
-        <v>1888.779840549408</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O4" t="n">
-        <v>2051.484607591116</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P4" t="n">
-        <v>2171.360773367695</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q4" t="n">
-        <v>2174.782969737746</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R4" t="n">
-        <v>2174.782969737746</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S4" t="n">
-        <v>1971.966885920295</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="T4" t="n">
-        <v>1736.24783408853</v>
+        <v>707.2312174661248</v>
       </c>
       <c r="U4" t="n">
-        <v>1450.80904233043</v>
+        <v>421.7924257080257</v>
       </c>
       <c r="V4" t="n">
-        <v>1273.335947196194</v>
+        <v>421.7924257080257</v>
       </c>
       <c r="W4" t="n">
-        <v>1273.335947196194</v>
+        <v>360.4544933316646</v>
       </c>
       <c r="X4" t="n">
-        <v>1273.335947196194</v>
+        <v>360.4544933316646</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.335947196194</v>
+        <v>360.4544933316646</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1222.326100532455</v>
+        <v>1813.668821661856</v>
       </c>
       <c r="C5" t="n">
-        <v>1011.889970284309</v>
+        <v>1420.493320164786</v>
       </c>
       <c r="D5" t="n">
-        <v>1011.889970284309</v>
+        <v>1035.052191381454</v>
       </c>
       <c r="E5" t="n">
-        <v>1011.889970284309</v>
+        <v>1009.897557645893</v>
       </c>
       <c r="F5" t="n">
-        <v>594.995531814287</v>
+        <v>593.0031191758703</v>
       </c>
       <c r="G5" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638735</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638735</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633835</v>
       </c>
       <c r="J5" t="n">
-        <v>188.145432303583</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926283</v>
       </c>
       <c r="L5" t="n">
-        <v>668.6733001978632</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M5" t="n">
-        <v>1206.932085207955</v>
+        <v>1552.058346020844</v>
       </c>
       <c r="N5" t="n">
-        <v>1734.743368845418</v>
+        <v>1552.058346020844</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.782969737746</v>
+        <v>1992.097946913173</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737746</v>
+        <v>1992.097946913173</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816917</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737746</v>
+        <v>2037.169424102439</v>
       </c>
       <c r="S5" t="n">
-        <v>2008.269414678797</v>
+        <v>2037.169424102439</v>
       </c>
       <c r="T5" t="n">
-        <v>2008.269414678797</v>
+        <v>1813.668821661856</v>
       </c>
       <c r="U5" t="n">
-        <v>2008.269414678797</v>
+        <v>1813.668821661856</v>
       </c>
       <c r="V5" t="n">
-        <v>2008.269414678797</v>
+        <v>1813.668821661856</v>
       </c>
       <c r="W5" t="n">
-        <v>2008.269414678797</v>
+        <v>1813.668821661856</v>
       </c>
       <c r="X5" t="n">
-        <v>1618.816809611853</v>
+        <v>1813.668821661856</v>
       </c>
       <c r="Y5" t="n">
-        <v>1222.326100532455</v>
+        <v>1813.668821661856</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.8134179021411</v>
+        <v>840.8692298963692</v>
       </c>
       <c r="C6" t="n">
-        <v>505.1591874622333</v>
+        <v>690.2149994564614</v>
       </c>
       <c r="D6" t="n">
-        <v>425.6719538272461</v>
+        <v>560.1260320779418</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272461</v>
+        <v>423.6795411888295</v>
       </c>
       <c r="F6" t="n">
-        <v>301.2401477103779</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438258</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284333</v>
+        <v>90.89050074442676</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633835</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760657</v>
       </c>
       <c r="K6" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760657</v>
       </c>
       <c r="L6" t="n">
-        <v>156.6106416144823</v>
+        <v>638.184314874379</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0174418653847</v>
+        <v>1151.786993484066</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875477</v>
+        <v>1151.786993484066</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466458</v>
+        <v>1435.175877545629</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182855</v>
+        <v>1840.797246262027</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816917</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.86592663581</v>
+        <v>2051.245294714982</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535679</v>
+        <v>2051.245294714982</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734588</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413229</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784297</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917583</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692675951</v>
+        <v>1171.979781261823</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431024</v>
+        <v>992.6655643373306</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>880.8509614285281</v>
+        <v>209.7573006568928</v>
       </c>
       <c r="C7" t="n">
-        <v>710.6458434945173</v>
+        <v>209.7573006568928</v>
       </c>
       <c r="D7" t="n">
-        <v>555.012730397032</v>
+        <v>209.7573006568928</v>
       </c>
       <c r="E7" t="n">
-        <v>399.4539182562345</v>
+        <v>209.7573006568928</v>
       </c>
       <c r="F7" t="n">
-        <v>242.1279834692074</v>
+        <v>209.7573006568928</v>
       </c>
       <c r="G7" t="n">
-        <v>73.87392956865298</v>
+        <v>41.50324675633835</v>
       </c>
       <c r="H7" t="n">
-        <v>73.87392956865298</v>
+        <v>41.50324675633835</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865298</v>
+        <v>41.50324675633835</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633835</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662802</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>707.2312174661248</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>707.2312174661248</v>
       </c>
       <c r="V7" t="n">
-        <v>944.9426819363074</v>
+        <v>441.251872286949</v>
       </c>
       <c r="W7" t="n">
-        <v>944.9426819363074</v>
+        <v>441.251872286949</v>
       </c>
       <c r="X7" t="n">
-        <v>944.9426819363074</v>
+        <v>441.251872286949</v>
       </c>
       <c r="Y7" t="n">
-        <v>944.9426819363074</v>
+        <v>218.1398111035924</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1604.036739400527</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="C8" t="n">
-        <v>1604.036739400527</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="D8" t="n">
-        <v>1604.036739400527</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="E8" t="n">
-        <v>1201.453214517072</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F8" t="n">
-        <v>784.5587760470498</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
         <v>47.31297010154361</v>
@@ -4802,22 +4802,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M8" t="n">
-        <v>1590.266290800943</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N8" t="n">
-        <v>2118.077574438405</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
         <v>2365.64850507718</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V8" t="n">
-        <v>2004.531485111924</v>
+        <v>2034.312513261617</v>
       </c>
       <c r="W8" t="n">
-        <v>2004.531485111924</v>
+        <v>1663.313478229905</v>
       </c>
       <c r="X8" t="n">
-        <v>2004.531485111924</v>
+        <v>1273.860873162962</v>
       </c>
       <c r="Y8" t="n">
-        <v>2004.531485111924</v>
+        <v>877.3701640835627</v>
       </c>
     </row>
     <row r="9">
@@ -4890,16 +4890,16 @@
         <v>850.6182020620834</v>
       </c>
       <c r="M9" t="n">
-        <v>1436.116207068686</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="N9" t="n">
-        <v>1849.128222486199</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.64850507718</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>683.9303219684286</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C10" t="n">
-        <v>683.9303219684286</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D10" t="n">
-        <v>683.9303219684286</v>
+        <v>817.0247473313507</v>
       </c>
       <c r="E10" t="n">
-        <v>528.3715098276311</v>
+        <v>661.4659351905532</v>
       </c>
       <c r="F10" t="n">
-        <v>371.0455750406041</v>
+        <v>504.1400004035262</v>
       </c>
       <c r="G10" t="n">
-        <v>202.7915211400496</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>683.9303219684286</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>683.9303219684286</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>683.9303219684286</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>683.9303219684286</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>683.9303219684286</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>683.9303219684286</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>683.9303219684286</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1467.291089243226</v>
+        <v>1653.0370227692</v>
       </c>
       <c r="C11" t="n">
-        <v>1145.91186289235</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="D11" t="n">
-        <v>1145.91186289235</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="E11" t="n">
-        <v>815.1246131550884</v>
+        <v>1000.870546681062</v>
       </c>
       <c r="F11" t="n">
-        <v>470.02644983126</v>
+        <v>655.772383357234</v>
       </c>
       <c r="G11" t="n">
-        <v>128.659969465457</v>
+        <v>314.4059029914315</v>
       </c>
       <c r="H11" t="n">
-        <v>128.659969465457</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5069,22 +5069,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998631</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="U11" t="n">
-        <v>2675.578323579424</v>
+        <v>2864.90108065896</v>
       </c>
       <c r="V11" t="n">
-        <v>2419.886753627152</v>
+        <v>2594.590546508673</v>
       </c>
       <c r="W11" t="n">
-        <v>2120.683993741633</v>
+        <v>2295.387786623154</v>
       </c>
       <c r="X11" t="n">
-        <v>2120.683993741633</v>
+        <v>1977.731456702405</v>
       </c>
       <c r="Y11" t="n">
-        <v>1795.989559808429</v>
+        <v>1653.0370227692</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>490.2252314250076</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>973.7913173233209</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M12" t="n">
-        <v>973.7913173233209</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N12" t="n">
-        <v>1629.56928853388</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O12" t="n">
-        <v>2146.089571124861</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>556.6863671542446</v>
+        <v>655.0952099420617</v>
       </c>
       <c r="C13" t="n">
-        <v>556.6863671542446</v>
+        <v>556.6863671542449</v>
       </c>
       <c r="D13" t="n">
-        <v>472.8495292029533</v>
+        <v>472.8495292029535</v>
       </c>
       <c r="E13" t="n">
-        <v>389.0869922083497</v>
+        <v>389.0869922083498</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675164</v>
+        <v>303.5573325675166</v>
       </c>
       <c r="G13" t="n">
-        <v>207.0995538131559</v>
+        <v>207.099553813156</v>
       </c>
       <c r="H13" t="n">
         <v>123.4172779208438</v>
@@ -5200,16 +5200,16 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027735</v>
       </c>
       <c r="M13" t="n">
         <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1365.712833143251</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T13" t="n">
-        <v>1201.790056457679</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U13" t="n">
-        <v>988.1475398457735</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="V13" t="n">
-        <v>988.1475398457735</v>
+        <v>1028.913383935513</v>
       </c>
       <c r="W13" t="n">
-        <v>776.613412923145</v>
+        <v>817.3792570128846</v>
       </c>
       <c r="X13" t="n">
-        <v>708.0021531914074</v>
+        <v>655.0952099420617</v>
       </c>
       <c r="Y13" t="n">
-        <v>556.6863671542446</v>
+        <v>655.0952099420617</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1145.91186289235</v>
+        <v>2033.222718167679</v>
       </c>
       <c r="C14" t="n">
-        <v>1145.91186289235</v>
+        <v>1711.843491816804</v>
       </c>
       <c r="D14" t="n">
-        <v>1145.91186289235</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="E14" t="n">
-        <v>815.1246131550881</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F14" t="n">
-        <v>470.0264498312598</v>
+        <v>722.3132251185755</v>
       </c>
       <c r="G14" t="n">
-        <v>128.6599694654568</v>
+        <v>380.9467447527725</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>128.659969465457</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998631</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>2675.578323579424</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V14" t="n">
-        <v>2405.267789429136</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W14" t="n">
-        <v>2106.065029543617</v>
+        <v>3004.271952586837</v>
       </c>
       <c r="X14" t="n">
-        <v>1799.304767390758</v>
+        <v>2686.615622666087</v>
       </c>
       <c r="Y14" t="n">
-        <v>1474.610333457553</v>
+        <v>2361.921188732882</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N15" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2345.75511703065</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>340.8225871975844</v>
+        <v>401.9661753553332</v>
       </c>
       <c r="C16" t="n">
-        <v>242.4137444097674</v>
+        <v>303.5573325675164</v>
       </c>
       <c r="D16" t="n">
-        <v>158.5769064584761</v>
+        <v>303.5573325675164</v>
       </c>
       <c r="E16" t="n">
-        <v>158.5769064584761</v>
+        <v>303.5573325675164</v>
       </c>
       <c r="F16" t="n">
-        <v>158.5769064584761</v>
+        <v>303.5573325675164</v>
       </c>
       <c r="G16" t="n">
-        <v>62.11912770411553</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
         <v>254.9154847581892</v>
@@ -5443,10 +5443,10 @@
         <v>489.4106539027736</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118223</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
         <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1444.627927593278</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1280.705150907706</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U16" t="n">
-        <v>1173.551360806288</v>
+        <v>969.9674193817665</v>
       </c>
       <c r="V16" t="n">
-        <v>979.3682907733061</v>
+        <v>775.7843493487846</v>
       </c>
       <c r="W16" t="n">
-        <v>767.8341638506776</v>
+        <v>564.2502224261563</v>
       </c>
       <c r="X16" t="n">
-        <v>605.5501167798545</v>
+        <v>401.9661753553332</v>
       </c>
       <c r="Y16" t="n">
-        <v>454.2343307426918</v>
+        <v>401.9661753553332</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975438</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F17" t="n">
-        <v>542.67184050993</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G17" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924207</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129444</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404062</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M17" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5540,13 +5540,13 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573994</v>
@@ -5558,7 +5558,7 @@
         <v>2147.691468840155</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443164</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5592,16 +5592,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>84.60386270860994</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>84.60386270860994</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N18" t="n">
         <v>1223.947919817482</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5683,40 +5683,40 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>683.1426636655151</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>845.8474307072231</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
-        <v>965.7235964838017</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975443</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099305</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924229</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129444</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404062</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M20" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5777,25 +5777,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443164</v>
       </c>
     </row>
     <row r="21">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>161.4017547291065</v>
+        <v>67.69877031229933</v>
       </c>
       <c r="K22" t="n">
-        <v>243.2367958390484</v>
+        <v>149.5338114222412</v>
       </c>
       <c r="L22" t="n">
-        <v>407.3644357128481</v>
+        <v>313.661451296041</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567345</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879436</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296516</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H23" t="n">
         <v>68.77950792924223</v>
@@ -5987,19 +5987,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129444</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404062</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M23" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6017,7 +6017,7 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U23" t="n">
         <v>2855.219708188068</v>
@@ -6075,7 +6075,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6151,13 +6151,13 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O25" t="n">
         <v>969.3241577214669</v>
@@ -6224,22 +6224,22 @@
         <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>311.0659935859516</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>763.0997113429867</v>
       </c>
       <c r="L26" t="n">
         <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N26" t="n">
-        <v>2516.334910202705</v>
+        <v>2609.386271932278</v>
       </c>
       <c r="O26" t="n">
-        <v>3049.425872824607</v>
+        <v>3079.395388107028</v>
       </c>
       <c r="P26" t="n">
         <v>3427.58288023855</v>
@@ -6257,10 +6257,10 @@
         <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
         <v>2784.073622420327</v>
@@ -6269,7 +6269,7 @@
         <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="27">
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985349</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517125</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
         <v>307.7550988878065</v>
@@ -6382,7 +6382,7 @@
         <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
@@ -6424,10 +6424,10 @@
         <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988161</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026478</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6437,49 +6437,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424151</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.22278621427</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218597</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390258</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142174</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I29" t="n">
         <v>73.36485894755025</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563783</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134134</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1163.368641331942</v>
       </c>
       <c r="M29" t="n">
-        <v>1895.47226483567</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N29" t="n">
-        <v>2423.283548473132</v>
+        <v>2423.283548473131</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647882</v>
+        <v>2956.374511095033</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508977</v>
+        <v>3397.613364956128</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.428440379499</v>
@@ -6494,19 +6494,19 @@
         <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174142</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164849</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420325</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.56169864057</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848359</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="30">
@@ -6549,10 +6549,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278173</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985351</v>
+        <v>504.3300981985346</v>
       </c>
       <c r="C31" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517122</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414161</v>
+        <v>368.3732297414153</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878061</v>
       </c>
       <c r="F31" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879674</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746013</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755025</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
         <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225743</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904114</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6658,13 +6658,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286445</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988159</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026476</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222129</v>
+        <v>1743.798875918587</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654424</v>
+        <v>1464.542485303043</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800456</v>
+        <v>1193.020467401236</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463654</v>
+        <v>904.3560533993059</v>
       </c>
       <c r="F32" t="n">
-        <v>622.898782305708</v>
+        <v>601.3807258108091</v>
       </c>
       <c r="G32" t="n">
-        <v>317.146589723076</v>
+        <v>302.1370811803381</v>
       </c>
       <c r="H32" t="n">
-        <v>100.474102218932</v>
+        <v>91.97314162835465</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076156</v>
+        <v>67.55513560234499</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>212.2049085111731</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770515</v>
+        <v>571.187264538635</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.773061622651</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1823.047054394302</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2436.268520877769</v>
+        <v>2249.97186051419</v>
       </c>
       <c r="O32" t="n">
-        <v>2876.308121770097</v>
+        <v>2690.011461406518</v>
       </c>
       <c r="P32" t="n">
-        <v>3224.495613901619</v>
+        <v>3149.851074113023</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042568</v>
+        <v>3334.696634253972</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038078</v>
+        <v>3377.756780117249</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908493</v>
+        <v>3325.162335939825</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397275</v>
+        <v>3215.580844380768</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761238</v>
+        <v>3073.747225696892</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394121</v>
+        <v>2845.559527281936</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291774</v>
+        <v>2588.479603131749</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154195</v>
+        <v>2312.946108946332</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004161</v>
+        <v>2030.374510748458</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807925</v>
+        <v>866.9211187423759</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408847</v>
+        <v>716.2668883024681</v>
       </c>
       <c r="D33" t="n">
-        <v>588.170333562365</v>
+        <v>586.1779209239485</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348362</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.299623917968</v>
       </c>
       <c r="G33" t="n">
-        <v>207.232218628249</v>
+        <v>205.2398059898325</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904334</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076156</v>
+        <v>67.55513560234499</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076156</v>
+        <v>180.6701178220724</v>
       </c>
       <c r="K33" t="n">
-        <v>69.54754824076156</v>
+        <v>500.4092638842988</v>
       </c>
       <c r="L33" t="n">
-        <v>553.1136341390747</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>1180.885283765756</v>
+        <v>1611.746999409293</v>
       </c>
       <c r="N33" t="n">
-        <v>1465.741431909019</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="O33" t="n">
-        <v>1982.2617145</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2387.883083216398</v>
+        <v>2151.52557902309</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476045</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375914</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253464</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624531</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757818</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965115</v>
+        <v>365.6713676929695</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918654</v>
+        <v>309.3853606404842</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237449</v>
+        <v>267.6713584245245</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123122</v>
+        <v>226.0316571652525</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546499</v>
+        <v>182.624833259751</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834602</v>
+        <v>128.2898902407221</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431891</v>
+        <v>86.73045008374157</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076156</v>
+        <v>67.55513560234499</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>67.55513560234499</v>
       </c>
       <c r="K34" t="n">
-        <v>245.409263406748</v>
+        <v>225.4160927170916</v>
       </c>
       <c r="L34" t="n">
-        <v>514.8099960076182</v>
+        <v>389.5437325908914</v>
       </c>
       <c r="M34" t="n">
-        <v>701.1015743458822</v>
+        <v>687.4874315041386</v>
       </c>
       <c r="N34" t="n">
-        <v>989.5643011041618</v>
+        <v>982.329186110331</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.26906814587</v>
+        <v>1256.686073727022</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649519</v>
+        <v>1376.562239503601</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.11361574664</v>
+        <v>1379.984435873652</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308582</v>
+        <v>1370.002557387754</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420496</v>
+        <v>1281.105584451829</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518095</v>
+        <v>1159.305643501589</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689361</v>
+        <v>987.785962625015</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395496</v>
+        <v>835.7257283273648</v>
       </c>
       <c r="W34" t="n">
-        <v>733.392329300092</v>
+        <v>666.3144371400679</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124399</v>
+        <v>546.1532258045764</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.021071758448</v>
+        <v>436.9602755027453</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J35" t="n">
         <v>206.7689006129436</v>
@@ -6941,34 +6941,34 @@
         <v>565.7512566404055</v>
       </c>
       <c r="L35" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M35" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O35" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
@@ -7011,7 +7011,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J36" t="n">
         <v>175.2341099238429</v>
@@ -7023,7 +7023,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218804</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072677</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462919</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J37" t="n">
-        <v>161.4017547291066</v>
+        <v>67.69877031229973</v>
       </c>
       <c r="K37" t="n">
-        <v>243.2367958390485</v>
+        <v>149.5338114222416</v>
       </c>
       <c r="L37" t="n">
-        <v>407.3644357128483</v>
+        <v>313.6614512960414</v>
       </c>
       <c r="M37" t="n">
-        <v>593.6560140511123</v>
+        <v>499.9530296343054</v>
       </c>
       <c r="N37" t="n">
-        <v>776.8456480823215</v>
+        <v>683.1426636655146</v>
       </c>
       <c r="O37" t="n">
-        <v>939.5504151240295</v>
+        <v>845.8474307072227</v>
       </c>
       <c r="P37" t="n">
-        <v>1059.426580900608</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S37" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974524</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975448</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924219</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J38" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L38" t="n">
         <v>1059.071548358934</v>
@@ -7190,25 +7190,25 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P38" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q38" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
         <v>2405.46733722469</v>
@@ -7248,7 +7248,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J39" t="n">
         <v>175.2341099238429</v>
@@ -7260,7 +7260,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229814</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>149.53381142224</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960398</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343038</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655131</v>
       </c>
       <c r="O40" t="n">
-        <v>840.2677880990384</v>
+        <v>845.8474307072211</v>
       </c>
       <c r="P40" t="n">
-        <v>960.1439538756169</v>
+        <v>965.7235964837996</v>
       </c>
       <c r="Q40" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="41">
@@ -7394,19 +7394,19 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975453</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J41" t="n">
         <v>206.7689006129436</v>
@@ -7436,10 +7436,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U41" t="n">
         <v>2855.219708188068</v>
@@ -7448,7 +7448,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
         <v>2147.691468840156</v>
@@ -7485,7 +7485,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J42" t="n">
         <v>175.2341099238429</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J43" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K43" t="n">
-        <v>270.9691711012525</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>435.0968109750523</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>621.3883893133163</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>804.5780233445255</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O43" t="n">
-        <v>967.2827903862335</v>
+        <v>969.3241577214671</v>
       </c>
       <c r="P43" t="n">
-        <v>1087.158956162812</v>
+        <v>1089.200323498046</v>
       </c>
       <c r="Q43" t="n">
-        <v>1090.581152532863</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="44">
@@ -7631,19 +7631,19 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G44" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H44" t="n">
         <v>68.77950792924223</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J44" t="n">
         <v>206.7689006129436</v>
@@ -7676,13 +7676,13 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U44" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7722,28 +7722,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>381.8582737663419</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M45" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1521.202330875214</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2037.722613466195</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7795,37 +7795,37 @@
         <v>123.9159479588727</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072671</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462916</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229905</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222409</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960407</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343048</v>
       </c>
       <c r="N46" t="n">
-        <v>677.5630210573304</v>
+        <v>683.142663665514</v>
       </c>
       <c r="O46" t="n">
-        <v>840.2677880990384</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P46" t="n">
-        <v>960.1439538756169</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q46" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R46" t="n">
         <v>1098.20216247628</v>
@@ -7849,7 +7849,7 @@
         <v>380.8985856984004</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974522</v>
       </c>
     </row>
   </sheetData>
@@ -7982,22 +7982,22 @@
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>362.7752171258601</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>668.5156360519566</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920135</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>277.8653037320984</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>208.0477224308024</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>611.1777065035412</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886031</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>129.6793274559028</v>
+        <v>611.4781433431183</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8219,13 +8219,13 @@
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>276.0214140404091</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321637</v>
+        <v>668.5156360519566</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8234,7 +8234,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>228.40212357369</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8298,16 +8298,16 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>419.0606576562841</v>
+        <v>611.1777065035412</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886031</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>378.9389569308722</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
@@ -8459,16 +8459,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>301.2346582324079</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>399.6354845339704</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8538,19 +8538,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>502.5559668112513</v>
+        <v>447.5171231095482</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8766,16 +8766,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>407.7697853345098</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
@@ -8784,10 +8784,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,28 +9003,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>126.0381992661173</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,10 +9240,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>105.1563108732267</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
@@ -9252,7 +9252,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9416,7 +9416,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P20" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
         <v>331.2113854294513</v>
@@ -9723,10 +9723,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -10197,13 +10197,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118427</v>
+        <v>220.884447093964</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10425,10 +10425,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
@@ -10437,16 +10437,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>373.1055958271596</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10589,7 +10589,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L35" t="n">
-        <v>651.5514946987036</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M35" t="n">
         <v>701.2411122488187</v>
@@ -10671,10 +10671,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10908,10 +10908,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11373,7 +11373,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11385,16 +11385,16 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>433.2773539239171</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,19 +23309,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>37.24224548729575</v>
       </c>
       <c r="V11" t="n">
-        <v>14.47277455603571</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993873</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901686</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,19 +23470,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>72.67700061472512</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>92.73605946569454</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362793</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>195.543143993913</v>
       </c>
       <c r="X14" t="n">
-        <v>10.78710709021147</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177841</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465757</v>
+        <v>82.92491162465753</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442484</v>
+        <v>84.67436304442479</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338901</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456094</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>105.423839245382</v>
+        <v>33.58534781964977</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>966879.0998563523</v>
+        <v>965074.4570150714</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>966879.0998563523</v>
+        <v>965074.4570150714</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>874220.8750749431</v>
+        <v>874220.8750749432</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>874220.8750749429</v>
+        <v>874220.8750749432</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>360664.3561867136</v>
+        <v>360664.3561867134</v>
       </c>
       <c r="C2" t="n">
-        <v>360664.3561867136</v>
+        <v>360664.3561867134</v>
       </c>
       <c r="D2" t="n">
-        <v>360664.3561867135</v>
+        <v>360664.3561867134</v>
       </c>
       <c r="E2" t="n">
         <v>318718.0468488017</v>
       </c>
       <c r="F2" t="n">
-        <v>318718.0468488015</v>
+        <v>318718.0468488017</v>
       </c>
       <c r="G2" t="n">
         <v>360664.3561867134</v>
       </c>
       <c r="H2" t="n">
+        <v>360664.3561867134</v>
+      </c>
+      <c r="I2" t="n">
+        <v>360664.3561867134</v>
+      </c>
+      <c r="J2" t="n">
+        <v>360664.3561867137</v>
+      </c>
+      <c r="K2" t="n">
+        <v>360664.3561867137</v>
+      </c>
+      <c r="L2" t="n">
+        <v>360664.3561867138</v>
+      </c>
+      <c r="M2" t="n">
+        <v>360664.3561867134</v>
+      </c>
+      <c r="N2" t="n">
         <v>360664.3561867135</v>
       </c>
-      <c r="I2" t="n">
-        <v>360664.3561867138</v>
-      </c>
-      <c r="J2" t="n">
-        <v>360664.3561867135</v>
-      </c>
-      <c r="K2" t="n">
-        <v>360664.3561867136</v>
-      </c>
-      <c r="L2" t="n">
-        <v>360664.3561867141</v>
-      </c>
-      <c r="M2" t="n">
-        <v>360664.3561867137</v>
-      </c>
-      <c r="N2" t="n">
-        <v>360664.3561867138</v>
-      </c>
       <c r="O2" t="n">
-        <v>360664.3561867137</v>
+        <v>360664.3561867133</v>
       </c>
       <c r="P2" t="n">
-        <v>360664.3561867138</v>
+        <v>360664.3561867134</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918557</v>
+        <v>173858.6570340547</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062212</v>
+        <v>22558.42953401386</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668191</v>
+        <v>47425.32553668192</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945024</v>
+        <v>200285.864039929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.80213202536106e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.4717972856</v>
+        <v>62456.24177539696</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962305</v>
+        <v>43252.52447081121</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277123</v>
+        <v>27767.6940427712</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232424.3126138794</v>
+        <v>237331.8440488218</v>
       </c>
       <c r="C4" t="n">
-        <v>232424.3126138794</v>
+        <v>237331.8440488217</v>
       </c>
       <c r="D4" t="n">
         <v>223021.8565516675</v>
@@ -26427,13 +26427,13 @@
         <v>151510.2534766781</v>
       </c>
       <c r="F4" t="n">
-        <v>151510.2534766781</v>
+        <v>151510.2534766782</v>
       </c>
       <c r="G4" t="n">
-        <v>199269.1699682602</v>
+        <v>199269.1699682603</v>
       </c>
       <c r="H4" t="n">
-        <v>199269.1699682602</v>
+        <v>199269.1699682603</v>
       </c>
       <c r="I4" t="n">
         <v>199269.1699682603</v>
@@ -26442,10 +26442,10 @@
         <v>200019.6624326434</v>
       </c>
       <c r="K4" t="n">
-        <v>200019.6624326435</v>
+        <v>200019.6624326434</v>
       </c>
       <c r="L4" t="n">
-        <v>199764.08853216</v>
+        <v>199630.6939231053</v>
       </c>
       <c r="M4" t="n">
         <v>199269.1699682603</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481714</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481714</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,10 +26482,10 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
@@ -26497,19 +26497,19 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.19813315417</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-120649.2058590352</v>
+        <v>-115696.2124309802</v>
       </c>
       <c r="C6" t="n">
-        <v>61555.74243282044</v>
+        <v>58162.44460307455</v>
       </c>
       <c r="D6" t="n">
-        <v>53234.90204725074</v>
+        <v>45498.61282385894</v>
       </c>
       <c r="E6" t="n">
-        <v>1899.212198238471</v>
+        <v>1689.480651548967</v>
       </c>
       <c r="F6" t="n">
-        <v>114021.7736722828</v>
+        <v>113812.0421255934</v>
       </c>
       <c r="G6" t="n">
-        <v>55800.09136625156</v>
+        <v>55800.09136625158</v>
       </c>
       <c r="H6" t="n">
-        <v>103225.4169029336</v>
+        <v>103225.4169029334</v>
       </c>
       <c r="I6" t="n">
-        <v>103225.4169029338</v>
+        <v>103225.4169029334</v>
       </c>
       <c r="J6" t="n">
-        <v>-109816.5006943518</v>
+        <v>-103300.2155397783</v>
       </c>
       <c r="K6" t="n">
-        <v>96985.64850015065</v>
+        <v>96985.64850015077</v>
       </c>
       <c r="L6" t="n">
-        <v>41803.05956552998</v>
+        <v>37754.22235505742</v>
       </c>
       <c r="M6" t="n">
-        <v>61024.5874433107</v>
+        <v>59972.89243212227</v>
       </c>
       <c r="N6" t="n">
-        <v>103225.4169029338</v>
+        <v>103225.4169029334</v>
       </c>
       <c r="O6" t="n">
-        <v>75457.72286016244</v>
+        <v>75457.72286016215</v>
       </c>
       <c r="P6" t="n">
-        <v>103225.4169029339</v>
+        <v>103225.4169029335</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344365</v>
+        <v>518.7905844542294</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344365</v>
+        <v>518.7905844542294</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26817,19 +26817,19 @@
         <v>917.0607368443781</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095195</v>
+        <v>844.4391950293124</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.489096301444</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.489096301444</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085238</v>
+        <v>59.2816569208524</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.709617553464</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>71.626839746607</v>
+        <v>78.0703022192462</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551328</v>
+        <v>17.58004954287409</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.709617553464</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344365</v>
+        <v>518.7905844542294</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485856</v>
+        <v>72.62154181506571</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773705</v>
+        <v>659.3622249971634</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407356</v>
+        <v>117.1268713042806</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085238</v>
+        <v>59.2816569208524</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.709617553464</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344365</v>
+        <v>518.7905844542294</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485856</v>
+        <v>72.62154181506571</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27382,10 +27382,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>25.37013592550039</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.5654907860082</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>34.89937128976664</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27521,10 +27521,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>70.7377999315016</v>
       </c>
     </row>
     <row r="4">
@@ -27552,13 +27552,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,10 +27594,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>87.62118754448946</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>219.7725449955366</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -27616,13 +27616,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>180.9119775364348</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>373.6546022364149</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -27679,10 +27679,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27698,10 +27698,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>50.0957164060972</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27743,10 +27743,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>148.2483091467763</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>119.9051352016867</v>
+        <v>175.0572531621557</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27795,7 +27795,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,13 +27825,13 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -27840,7 +27840,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
@@ -27859,7 +27859,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
@@ -27910,16 +27910,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>18.79287601524692</v>
+        <v>10.6631093061095</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>23.65888910788243</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>61.2685284851041</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473198</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
         <v>30.07448747215907</v>
@@ -28755,40 +28755,40 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>5.636002634529973</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="21">
@@ -28956,31 +28956,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>130.3599693155843</v>
+        <v>35.71049010668816</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28989,7 +28989,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>35.71049010668918</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29007,25 +29007,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="23">
@@ -29223,7 +29223,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29232,7 +29232,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431647</v>
+        <v>30.27223765901169</v>
       </c>
       <c r="P26" t="n">
-        <v>30.27223765901186</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431636</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>30.27223765901169</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431648</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29776,46 +29776,46 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>106.3364573000711</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>106.3364573000711</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>86.27291196566171</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000711</v>
+        <v>81.10808140892695</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727103</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000711</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>18.71446861253709</v>
+        <v>76.79385455030786</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000711</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000711</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000711</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727103</v>
       </c>
     </row>
     <row r="35">
@@ -30165,28 +30165,28 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
+        <v>35.71049010668857</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
       <c r="Q37" t="n">
-        <v>35.71049010668797</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>122.6619794737488</v>
@@ -30402,7 +30402,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668697</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,10 +30423,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>128.2979821082778</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="R40" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30639,23 +30639,23 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K43" t="n">
-        <v>28.01250026485259</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
@@ -30663,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082768</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30876,7 +30876,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668789</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,10 +30897,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>128.2979821082778</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="R46" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34702,22 +34702,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>209.5270473953684</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>518.7905844542294</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542294</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>127.5638564911732</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>118.4507870974691</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>518.7905844542294</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344365</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>36.99176856701393</v>
+        <v>518.7905844542294</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,13 +34939,13 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>122.7732443099175</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344365</v>
+        <v>518.7905844542294</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -34954,7 +34954,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>83.90342515529785</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,16 +35018,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>326.6735356069722</v>
+        <v>518.7905844542294</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344365</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>286.2513980419833</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
@@ -35179,16 +35179,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>151.5096066346806</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>250.071647109874</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35258,19 +35258,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>417.1838539570846</v>
+        <v>362.1450102553815</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>318.1728500011765</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
@@ -35504,10 +35504,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.05004611020335</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257291</v>
       </c>
       <c r="K16" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P16" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488446</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>22.71185353989334</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
@@ -35972,7 +35972,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -36051,16 +36051,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>190.6760370094888</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.8167333257368</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36136,7 +36136,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
         <v>186.7126870110591</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>100.2854818434253</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36285,7 +36285,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>223.8838015594811</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36443,10 +36443,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
         <v>247.8874524576764</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36519,7 +36519,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
@@ -36528,7 +36528,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
@@ -36601,22 +36601,22 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>474.756683004798</v>
       </c>
       <c r="P26" t="n">
-        <v>381.9767751655996</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698319</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36762,16 +36762,16 @@
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
-        <v>258.3395240113953</v>
+        <v>258.3395240113952</v>
       </c>
       <c r="P28" t="n">
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004055</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
         <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>474.756683004798</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700714</v>
       </c>
       <c r="R29" t="n">
-        <v>56.3782898969832</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,13 +36917,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576761</v>
+        <v>135.5123342397974</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37005,10 +37005,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>604.639782268282</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511626</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>619.4156227105728</v>
+        <v>645.9226305176214</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>464.484457279298</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273782</v>
+        <v>43.49509683159368</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
@@ -37157,16 +37157,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>287.7334829729929</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791203</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>101.3761262993471</v>
+        <v>159.4555122371178</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220911</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>300.9532312255022</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750299</v>
+        <v>297.819954147669</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>277.1281693097891</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380293</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102236</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L35" t="n">
-        <v>498.3033249682118</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M35" t="n">
         <v>551.5160606510915</v>
@@ -37391,10 +37391,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
         <v>247.8874524576764</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>100.2854818434253</v>
+        <v>5.636002634529504</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
@@ -37479,10 +37479,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.16725411684045</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37628,10 +37628,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
         <v>247.8874524576764</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>5.636002634527896</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
@@ -37719,10 +37719,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>131.7547461184303</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R40" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>110.6741579516626</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
         <v>165.78549482202</v>
@@ -37950,7 +37950,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P43" t="n">
         <v>121.0870361379582</v>
@@ -37959,7 +37959,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>7.697989841835579</v>
+        <v>5.636002634527946</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
@@ -38105,16 +38105,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>346.1939891046024</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>5.636002634528815</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
@@ -38193,10 +38193,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>131.7547461184303</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R46" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
